--- a/MCEQs Model 3 from GEM.xlsx
+++ b/MCEQs Model 3 from GEM.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maartendroste/Dropbox/entropy production by optimal EFMs/Calculations/Chemostat/Chemostat models for overflow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maartendroste/Dropbox/entropy production by optimal EFMs/EPR Paper/Paper JPCB/EPR paper JPCB submission files Revision/Source codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4645EFD-8F9F-E645-8E11-0867A86DA222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF1A28A-2B0E-A340-9A64-04C15E0DADF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MCEQs simplified" sheetId="3" r:id="rId1"/>
-    <sheet name="lambdas" sheetId="2" r:id="rId2"/>
-    <sheet name="MCEQs" sheetId="1" r:id="rId3"/>
+    <sheet name="General info" sheetId="4" r:id="rId1"/>
+    <sheet name="Macrochemical eq's simplified" sheetId="3" r:id="rId2"/>
+    <sheet name="Growth rates" sheetId="2" r:id="rId3"/>
+    <sheet name="Macrochemical equations" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="578">
   <si>
     <t>MCEQ total mu=0.28</t>
   </si>
@@ -1744,13 +1745,85 @@
   </si>
   <si>
     <t>lambda ac</t>
+  </si>
+  <si>
+    <t>This file contains source code for the following article:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A Trade-off between Force and Flow may lead to Reduced Entropy Production Rate during Faster Microbial Growth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Maarten J. Droste^(1,2), Maaike Remeijer^2, Robert Planqué^1, Frank J. Bruggeman^2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Affiliations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ^1Department of Mathematics, Amsterdam Center for Dynamics and Computation, Vrije Universiteit Amsterdam, 1081 HV Amsterdam, the Netherlands, ^2Systems Biology Lab, A-LIFE, AIMMS, Vrije Universiteit Amsterdam, 1081 HZ Amsterdam, the Netherlands</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1762,6 +1835,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1806,7 +1887,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2105,10 +2186,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7383C48-C5AD-B44A-9C59-26A943860BC6}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5485F90-B27D-8047-87E4-DFDCB0E35116}">
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
@@ -3993,12 +4109,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4202,7 +4318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN23"/>
   <sheetViews>
